--- a/FinalResults/man_hrs_prob.xlsx
+++ b/FinalResults/man_hrs_prob.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
+          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
+          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9']</t>
+          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[5.0, 5.0, 5.0, 7.0]</t>
+          <t>[7.0, 5.0, 5.0, 5.0]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -735,12 +735,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/15', 'HMV23/000059/0923/11']</t>
+          <t>['HMV23/000059/0923/11', 'HMV23/000055/0923/15']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01']</t>
+          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[3.0, 4.0]</t>
+          <t>[4.0, 3.0]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -771,12 +771,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
+          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[3.0, 2.5]</t>
+          <t>[2.5, 3.0]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -802,17 +802,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
+          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
+          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[5.0, 6.0]</t>
+          <t>[6.0, 5.0]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -915,12 +915,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9', 'HMV23/000055/0923/8']</t>
+          <t>['HMV23/000055/0923/7', 'HMV23/000055/0923/8', 'HMV23/000055/0923/9', 'HMV23/000055/0923/1']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2.0, 7.0, 7.0, 3.0]</t>
+          <t>[7.0, 3.0, 7.0, 2.0]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -951,12 +951,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/3', 'HMV23/000055/0923/5']</t>
+          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.5, 2.0, 4.0]</t>
+          <t>[2.0, 4.0, 2.5]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -987,12 +987,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
+          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
+          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
+          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[10.0, 5.0]</t>
+          <t>[5.0, 10.0]</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/FinalResults/man_hrs_prob.xlsx
+++ b/FinalResults/man_hrs_prob.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0, 2.0, 2.0, 3.0]</t>
+          <t>[2.0, 0.0, 3.0, 2.0]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
+          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[7.0, 5.0, 5.0, 5.0]</t>
+          <t>[5.0, 5.0, 7.0, 5.0]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -771,12 +771,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
+          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[2.5, 3.0]</t>
+          <t>[3.0, 2.5]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -802,17 +802,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
+          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
+          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
+          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[6.0, 5.0]</t>
+          <t>[5.0, 6.0]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -915,12 +915,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/7', 'HMV23/000055/0923/8', 'HMV23/000055/0923/9', 'HMV23/000055/0923/1']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[7.0, 3.0, 7.0, 2.0]</t>
+          <t>[3.0, 2.0, 7.0, 7.0]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -951,12 +951,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.0, 4.0, 2.5]</t>
+          <t>[4.0, 2.0, 2.5]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -987,12 +987,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
+          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
+          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
+          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[5.0, 10.0]</t>
+          <t>[10.0, 5.0]</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/FinalResults/man_hrs_prob.xlsx
+++ b/FinalResults/man_hrs_prob.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
+          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
+          <t>['HMV23/000059/0923/5', 'HMV23/000043/0823/12', 'HMV23/000055/0923/2', 'HMV23/000055/0923/6']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2.0, 0.0, 3.0, 2.0]</t>
+          <t>[0.0, 2.0, 2.0, 3.0]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
+          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000059/0923/9', 'HMV23/000055/0923/13']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/11', 'HMV23/000055/0923/15']</t>
+          <t>['HMV23/000055/0923/15', 'HMV23/000059/0923/11']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE']</t>
+          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[4.0, 3.0]</t>
+          <t>[3.0, 4.0]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -771,12 +771,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
+          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[3.0, 2.5]</t>
+          <t>[2.5, 3.0]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -807,12 +807,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
+          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[5.0, 6.0]</t>
+          <t>[6.0, 5.0]</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -915,12 +915,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/5', 'HMV23/000055/0923/3']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[4.0, 2.0, 2.5]</t>
+          <t>[2.5, 4.0, 2.0]</t>
         </is>
       </c>
       <c r="F15" t="n">

--- a/FinalResults/man_hrs_prob.xlsx
+++ b/FinalResults/man_hrs_prob.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/17', 'HMV23/000059/0923/3']</t>
+          <t>['HMV23/000059/0923/3', 'HMV23/000055/0923/17']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[7.0, 5.0]</t>
+          <t>[5.0, 7.0]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -519,12 +519,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
+          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/5', 'HMV23/000043/0823/12', 'HMV23/000055/0923/2', 'HMV23/000055/0923/6']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6', 'HMV23/000059/0923/5']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0, 2.0, 2.0, 3.0]</t>
+          <t>[2.0, 2.0, 3.0, 0.0]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -591,12 +591,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
+          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/12', 'HMV23/000059/0923/7']</t>
+          <t>['HMV23/000059/0923/7', 'HMV23/000055/0923/12']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
+          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[2.5, 3.0]</t>
+          <t>[3.0, 2.5]</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -802,7 +802,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
+          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/17', 'HMV23/000055/0923/25']</t>
+          <t>['HMV23/000055/0923/25', 'HMV23/000059/0923/17']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
+          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[16.0, 8.0]</t>
+          <t>[8.0, 16.0]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -951,12 +951,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/5', 'HMV23/000055/0923/3']</t>
+          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2.5, 4.0, 2.0]</t>
+          <t>[2.0, 4.0, 2.5]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -987,12 +987,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
+          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
+          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
+          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[10.0, 5.0]</t>
+          <t>[5.0, 10.0]</t>
         </is>
       </c>
       <c r="F19" t="n">
